--- a/data/localSuppr1.xlsx
+++ b/data/localSuppr1.xlsx
@@ -400,9 +400,6 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Higher Education</t>
@@ -1073,11 +1070,6 @@
           <t>Party B</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>51+</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4725,9 +4717,6 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>Higher Education</t>
@@ -5463,11 +5452,6 @@
           <t>Party B</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>51+</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6568,11 +6552,6 @@
           <t>Party B</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>51+</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6580,9 +6559,6 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
       <c r="C181" t="inlineStr">
         <is>
           <t>Vocational Training</t>
@@ -6601,6 +6577,11 @@
       <c r="F181" t="inlineStr">
         <is>
           <t>Party A</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>31-50</t>
         </is>
       </c>
     </row>
@@ -6633,11 +6614,6 @@
           <t>Party A</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>51+</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6960,9 +6936,6 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
       <c r="C192" t="inlineStr">
         <is>
           <t>Basic Education</t>
@@ -6981,6 +6954,11 @@
       <c r="F192" t="inlineStr">
         <is>
           <t>Party A</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>18-30</t>
         </is>
       </c>
     </row>
@@ -7024,9 +7002,6 @@
         <is>
           <t>Male</t>
         </is>
-      </c>
-      <c r="B194">
-        <v>0</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
